--- a/biology/Zoologie/Geitoneura_klugii/Geitoneura_klugii.xlsx
+++ b/biology/Zoologie/Geitoneura_klugii/Geitoneura_klugii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geitoneura klugii est un lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre Geitoneura, endémique de l'Australie.
 </t>
@@ -511,16 +523,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom de Geitoneura klugii lui a été donné par Félix Édouard Guérin-Méneville en 1831.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Geitoneura klugii lui a été donné par Félix Édouard Guérin-Méneville en 1831.
 L'espèce a été nommée pour honorer l'entomologiste Johann Christoph Friedrich Klug (1775-1856).
-Synonymes : Satyrus klugii Guérin-Méneville, [1831]; Satyrus singa Boisduval, 1832 ; Satyrus philerope Boisduval, 1832 ; Xenica gemini Anderson &amp; Spry, 1893 ; Geitoneura insula Burns, 1951[1].
-Nom vernaculaire
-Geitoneura klugii se nomme en anglais Common Xenica et Geitoneura klugii klugii  Klug's Xenica[1].
-Sous-espèces
-Geitoneura klugii klugii
-Geitoneura klugii insula (Burns, [1948])[1].</t>
+Synonymes : Satyrus klugii Guérin-Méneville, ; Satyrus singa Boisduval, 1832 ; Satyrus philerope Boisduval, 1832 ; Xenica gemini Anderson &amp; Spry, 1893 ; Geitoneura insula Burns, 1951.
+</t>
         </is>
       </c>
     </row>
@@ -545,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne, de couleur marron ornementé de taches orange avec un ocelle noir à l'apex des antérieures et en position anale aux postérieures.
-Le revers orange et marron présente un gros ocelle noir pupillé de blanc cernés d'ocre clair bordé d'une ligne marron à l'apex alors que les postérieures sont marbrées de marronclair terne.
-Chenille
-La chenille est de couleur verte jaunâtre avec des lignes vertes[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geitoneura klugii se nomme en anglais Common Xenica et Geitoneura klugii klugii  Klug's Xenica.
 </t>
         </is>
       </c>
@@ -579,14 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses, dont Brachypodium distachyon, Ehrharta calycina, Joycea pallida, Poa labillardieri, Poa morrisii,  Poa tenera, Themeda triandra[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Geitoneura klugii klugii
+Geitoneura klugii insula (Burns, ).</t>
         </is>
       </c>
     </row>
@@ -611,16 +629,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne, de couleur marron ornementé de taches orange avec un ocelle noir à l'apex des antérieures et en position anale aux postérieures.
+Le revers orange et marron présente un gros ocelle noir pupillé de blanc cernés d'ocre clair bordé d'une ligne marron à l'apex alors que les postérieures sont marbrées de marronclair terne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur verte jaunâtre avec des lignes vertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses, dont Brachypodium distachyon, Ehrharta calycina, Joycea pallida, Poa labillardieri, Poa morrisii,  Poa tenera, Themeda triandra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Geitoneura acantha est présent uniquement en Australie[1].
-Période de vol et hivernation
-Biotope
-Il réside dans les régions tempérées du sud de l'Australie
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geitoneura acantha est présent uniquement en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geitoneura_klugii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les régions tempérées du sud de l'Australie
+</t>
         </is>
       </c>
     </row>
